--- a/share/data/landcover.xlsx
+++ b/share/data/landcover.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mschull/umdGD/python/pyDisALEXI_0.2/projectMAS/share/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15915" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="NLCD" sheetId="1" r:id="rId1"/>
@@ -13,6 +18,9 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -269,8 +277,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,9 +395,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -462,6 +471,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -786,20 +800,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="17" max="17" width="30.375" customWidth="1"/>
-    <col min="18" max="18" width="35.875" customWidth="1"/>
+    <col min="17" max="17" width="30.33203125" customWidth="1"/>
+    <col min="18" max="18" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,7 +869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -881,7 +895,7 @@
         <v>-9999</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0.6</v>
@@ -911,7 +925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -937,7 +951,7 @@
         <v>-9999</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J3">
         <v>0.6</v>
@@ -967,7 +981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -993,7 +1007,7 @@
         <v>-9999</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J4">
         <v>0.6</v>
@@ -1023,7 +1037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1049,7 +1063,7 @@
         <v>-9999</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J5">
         <v>0.6</v>
@@ -1079,7 +1093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1135,7 +1149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1191,7 +1205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1217,7 +1231,7 @@
         <v>-9999</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J8">
         <v>0.2</v>
@@ -1247,7 +1261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1273,7 +1287,7 @@
         <v>-9999</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J9">
         <v>0.2</v>
@@ -1303,7 +1317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1359,7 +1373,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1415,7 +1429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1471,7 +1485,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1527,7 +1541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.5" customHeight="1">
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1583,7 +1597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1639,7 +1653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1695,7 +1709,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1751,7 +1765,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1807,7 +1821,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1863,7 +1877,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1889,7 +1903,7 @@
         <v>-9999</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J20">
         <v>0.6</v>
@@ -1919,7 +1933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1944,7 +1958,7 @@
       <c r="H21">
         <v>-9999</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>5</v>
       </c>
       <c r="J21">
@@ -1975,7 +1989,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2000,7 +2014,7 @@
       <c r="H22">
         <v>-9999</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>1</v>
       </c>
       <c r="J22">
@@ -2031,7 +2045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2056,7 +2070,7 @@
       <c r="H23">
         <v>-9999</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>1</v>
       </c>
       <c r="J23">
@@ -2087,7 +2101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2112,7 +2126,7 @@
       <c r="H24">
         <v>-9999</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>1</v>
       </c>
       <c r="J24">
@@ -2143,7 +2157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2168,7 +2182,7 @@
       <c r="H25">
         <v>-9999</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>1</v>
       </c>
       <c r="J25">
@@ -2199,7 +2213,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2224,7 +2238,7 @@
       <c r="H26">
         <v>-9999</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26">
@@ -2255,7 +2269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2280,7 +2294,7 @@
       <c r="H27">
         <v>-9999</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>1</v>
       </c>
       <c r="J27">
@@ -2311,7 +2325,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2336,7 +2350,7 @@
       <c r="H28">
         <v>-9999</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>1</v>
       </c>
       <c r="J28">
@@ -2367,7 +2381,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2392,7 +2406,7 @@
       <c r="H29">
         <v>-9999</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>1</v>
       </c>
       <c r="J29">
@@ -2423,7 +2437,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2448,7 +2462,7 @@
       <c r="H30">
         <v>-9999</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>1</v>
       </c>
       <c r="J30">
@@ -2485,28 +2499,23 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="21" max="21" width="23.875" customWidth="1"/>
+    <col min="21" max="21" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2583,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2642,7 +2651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -2710,7 +2719,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30</v>
       </c>
@@ -2778,7 +2787,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
@@ -2846,7 +2855,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -2914,7 +2923,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>70</v>
       </c>
@@ -3050,7 +3059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>80</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>90</v>
       </c>
@@ -3186,7 +3195,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -3254,119 +3263,114 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="16.5">
+    <row r="19" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="16.5">
+    <row r="21" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:1" ht="16.5">
+    <row r="23" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="25" spans="1:1" ht="16.5">
+    <row r="25" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="27" spans="1:1" ht="16.5">
+    <row r="27" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="29" spans="1:1" ht="16.5">
+    <row r="29" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="31" spans="1:1" ht="16.5">
+    <row r="31" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="33" spans="1:1" ht="16.5">
+    <row r="33" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="35" spans="1:1" ht="16.5">
+    <row r="35" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="37" spans="1:1" ht="16.5">
+    <row r="37" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="39" spans="1:1" ht="16.5">
+    <row r="39" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="41" spans="1:1" ht="16.5">
+    <row r="41" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="43" spans="1:1" ht="16.5">
+    <row r="43" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="45" spans="1:1" ht="16.5">
+    <row r="45" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="47" spans="1:1" ht="16.5">
+    <row r="47" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="49" spans="1:1" ht="16.5">
+    <row r="49" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="51" spans="1:1" ht="16.5">
+    <row r="51" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="53" spans="1:1" ht="16.5">
+    <row r="53" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="55" spans="1:1" ht="16.5">
+    <row r="55" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="57" spans="1:1" ht="16.5">
+    <row r="57" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="59" spans="1:1" ht="16.5">
+    <row r="59" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="61" spans="1:1" ht="16.5">
+    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="63" spans="1:1" ht="16.5">
+    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="65" spans="1:1" ht="16.5">
+    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="67" spans="1:1" ht="16.5">
+    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="69" spans="1:1" ht="16.5">
+    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="71" spans="1:1" ht="16.5">
+    <row r="71" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
     </row>
-    <row r="73" spans="1:1" ht="16.5">
+    <row r="73" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="75" spans="1:1" ht="16.5">
+    <row r="75" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
     </row>
-    <row r="77" spans="1:1" ht="16.5">
+    <row r="77" spans="1:1" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3446,7 +3450,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3506,7 +3510,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3546,7 +3550,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3566,7 +3570,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3586,7 +3590,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3606,7 +3610,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3626,7 +3630,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
